--- a/射出検定資料/射出検定１級_条件表記憶シート(編集中).xlsx
+++ b/射出検定資料/射出検定１級_条件表記憶シート(編集中).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>シリンダ温度（℃）</t>
     <rPh sb="4" eb="6">
@@ -512,6 +512,10 @@
     <rPh sb="7" eb="9">
       <t>イロガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60→？→？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -791,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -828,19 +832,7 @@
     <xf numFmtId="178" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,13 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="183" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -983,6 +969,18 @@
     <xf numFmtId="176" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,18 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,8 +1311,8 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,10 +1333,10 @@
       </c>
     </row>
     <row r="2" spans="2:13" s="8" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="77"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="15" t="s">
         <v>45</v>
       </c>
@@ -1366,121 +1352,121 @@
       <c r="J2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>200</v>
       </c>
       <c r="E3" s="18">
         <v>200</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="60">
+      <c r="F3" s="35"/>
+      <c r="G3" s="54">
         <v>280</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="74"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="18">
         <v>160</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>210</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="60">
+      <c r="F4" s="35"/>
+      <c r="G4" s="54">
         <v>290</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="74"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="18">
         <v>160</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>200</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="60">
+      <c r="F5" s="35"/>
+      <c r="G5" s="54">
         <v>280</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="74"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="18">
         <v>160</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>190</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="60">
+      <c r="F6" s="35"/>
+      <c r="G6" s="54">
         <v>270</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="75"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="18">
         <v>160</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>190</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="60">
+      <c r="F7" s="35"/>
+      <c r="G7" s="54">
         <v>260</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -1489,22 +1475,22 @@
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="52">
         <v>100</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="67">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="61">
         <v>120</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="64">
         <v>60</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
@@ -1513,28 +1499,30 @@
       <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="48">
         <v>50</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="48">
         <v>200</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="48">
         <v>100</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="55">
         <v>100</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="J9" s="67">
+        <v>100</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
@@ -1543,24 +1531,26 @@
       <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="24">
         <v>122</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="24">
         <v>60</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="50" t="s">
+      <c r="G10" s="57"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -1569,26 +1559,28 @@
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="49">
         <v>3</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="55">
+      <c r="E11" s="45"/>
+      <c r="F11" s="49">
         <v>20</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="56">
         <v>3</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="56">
         <v>20</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="J11" s="62">
+        <v>1</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
@@ -1597,22 +1589,22 @@
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="24">
         <v>3</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="49" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="44">
         <v>3</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
@@ -1621,22 +1613,22 @@
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="49">
         <v>100</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="62">
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="56">
         <v>120</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="68">
+      <c r="H13" s="45"/>
+      <c r="I13" s="62">
         <v>100</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
@@ -1645,26 +1637,28 @@
       <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="50">
         <v>0.9</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="58">
         <v>0.9</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I14" s="68">
         <v>0.9</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="68">
+        <v>15</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
@@ -1673,26 +1667,28 @@
       <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="30">
         <v>0</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="57" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="59">
         <v>0</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="80">
+      <c r="I15" s="69">
         <v>0</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="J15" s="69">
+        <v>15</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
@@ -1701,18 +1697,18 @@
       <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="42">
         <v>15</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
@@ -1721,20 +1717,20 @@
       <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="42">
         <v>18</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="81">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="70">
         <v>15</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
@@ -1743,18 +1739,18 @@
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
     </row>
     <row r="19" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
@@ -1763,20 +1759,20 @@
       <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="42">
         <v>3</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="47" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
@@ -1785,18 +1781,18 @@
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="23">
         <v>0.75</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
@@ -1805,18 +1801,18 @@
       <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="24">
         <v>75</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
@@ -1825,18 +1821,18 @@
       <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="23">
         <v>0.75</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
@@ -1845,18 +1841,18 @@
       <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="24">
         <v>75</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
@@ -1865,18 +1861,18 @@
       <c r="C24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="23">
         <v>0.1</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
@@ -1885,109 +1881,109 @@
       <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="24">
         <v>30</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
     </row>
     <row r="26" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="71" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="20">
         <v>40</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="60">
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="54">
         <v>80</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="71">
+      <c r="H26" s="35"/>
+      <c r="I26" s="65">
         <v>30</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="27" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="75"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="27">
         <v>30</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="66">
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="60">
         <v>60</v>
       </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="72">
+      <c r="H27" s="36"/>
+      <c r="I27" s="66">
         <v>30</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
     </row>
     <row r="28" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="52">
         <v>200</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="29" spans="2:13" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="53">
         <v>150</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
